--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_34.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2059727.072525651</v>
+        <v>2159297.998460833</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13228832.04867466</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1852030.743161947</v>
+        <v>612367.9462114748</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6127816.49560257</v>
+        <v>6495421.05759686</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
         <v>22.63172268683286</v>
@@ -665,19 +667,19 @@
         <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>65.04649299073976</v>
       </c>
       <c r="G2" t="n">
-        <v>47.23474715374051</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +822,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
         <v>98.77088257712678</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>44.28391178232732</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>23.63467990204655</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.64988064861473</v>
+        <v>333.4191839581966</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>178.506736086704</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1057,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,19 +1110,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>46.1619143009821</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>11.09502443004656</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>173.6651206416951</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>400.2956717864458</v>
+        <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>49.49512077555119</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="9">
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>110.8471439350443</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -1357,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>178.4473185207157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>197.4702139673148</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E11" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864459</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407056</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250131</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
@@ -1576,7 +1578,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1585,16 +1587,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>126.7170243143974</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>160.8277938782463</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486148</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924938</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>367.0593320544987</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,16 +1663,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095519</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439303</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>98.15366458399012</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
         <v>168.4336970060565</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>60.64582998875988</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1850,16 +1852,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536224</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.889694740705</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -2002,25 +2004,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>51.69511841098485</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>217.5170025838813</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
         <v>422.6317226868329</v>
@@ -2147,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="21">
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>69.70658994605395</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>98.15366458399268</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.2528374898731</v>
+        <v>165.5938898061686</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>75.30362264056416</v>
       </c>
       <c r="C28" t="n">
-        <v>102.1026425880269</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2956,13 +2958,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>51.58543740429417</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>117.1585426144803</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3184,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>157.796562429161</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3253,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3326,7 +3328,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>146.7855775533146</v>
       </c>
       <c r="C37" t="n">
-        <v>127.5302873014257</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.649880648615</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.448947331652032</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,16 +3717,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>258.0869277520205</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
         <v>224.0793406271554</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>364.4735365336943</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>392.4274362026577</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
         <v>401.2838973446586</v>
@@ -3901,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>96.4442051068641</v>
+        <v>123.9614865446926</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3955,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -3995,7 +3997,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>94.14659278172333</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4135,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>96.44420510686429</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>59.93143566197608</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>608.6939898724443</v>
+        <v>168.7534004685691</v>
       </c>
       <c r="C2" t="n">
-        <v>585.8336639261485</v>
+        <v>145.8930745222733</v>
       </c>
       <c r="D2" t="n">
-        <v>566.5814471515528</v>
+        <v>126.6408577476776</v>
       </c>
       <c r="E2" t="n">
-        <v>140.6045072994103</v>
+        <v>104.7043219359392</v>
       </c>
       <c r="F2" t="n">
-        <v>119.5207295292146</v>
+        <v>39.00079366246474</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="L2" t="n">
-        <v>36.91199246082674</v>
+        <v>880.2445183516411</v>
       </c>
       <c r="M2" t="n">
-        <v>36.91199246082674</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="N2" t="n">
-        <v>475.942330131692</v>
+        <v>882.5260259873576</v>
       </c>
       <c r="O2" t="n">
-        <v>932.7282368344229</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1361.464950229786</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1845.599623041337</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1845.599623041337</v>
+        <v>1609.813899533645</v>
       </c>
       <c r="U2" t="n">
-        <v>1845.599623041337</v>
+        <v>1351.458990130057</v>
       </c>
       <c r="V2" t="n">
-        <v>1845.599623041337</v>
+        <v>993.9695752563066</v>
       </c>
       <c r="W2" t="n">
-        <v>1845.599623041337</v>
+        <v>597.5782255566535</v>
       </c>
       <c r="X2" t="n">
-        <v>1433.879624209084</v>
+        <v>185.8582267244007</v>
       </c>
       <c r="Y2" t="n">
-        <v>1028.542354163974</v>
+        <v>184.5613607196951</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="I3" t="n">
-        <v>36.9119924608267</v>
+        <v>46.14877825422927</v>
       </c>
       <c r="J3" t="n">
-        <v>36.9119924608267</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9119924608267</v>
+        <v>317.8462675338204</v>
       </c>
       <c r="L3" t="n">
-        <v>493.6978991635576</v>
+        <v>796.7851917762484</v>
       </c>
       <c r="M3" t="n">
-        <v>950.4838058662884</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="N3" t="n">
-        <v>1306.794406253903</v>
+        <v>1275.724116018677</v>
       </c>
       <c r="O3" t="n">
-        <v>1763.580312956634</v>
+        <v>1754.663040261105</v>
       </c>
       <c r="P3" t="n">
-        <v>1763.580312956634</v>
+        <v>1754.663040261105</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1765.370455788124</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.7718677728423</v>
+        <v>955.6750519694078</v>
       </c>
       <c r="C4" t="n">
-        <v>474.7993046517582</v>
+        <v>783.7024888483238</v>
       </c>
       <c r="D4" t="n">
-        <v>474.7993046517582</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="E4" t="n">
-        <v>474.7993046517582</v>
+        <v>620.3857159750945</v>
       </c>
       <c r="F4" t="n">
-        <v>302.9375304263186</v>
+        <v>448.523941749655</v>
       </c>
       <c r="G4" t="n">
-        <v>136.6805607205508</v>
+        <v>282.2669720438871</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>138.4707035520415</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.70213529231743</v>
       </c>
       <c r="K4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.71266663273758</v>
       </c>
       <c r="L4" t="n">
-        <v>449.0926419794055</v>
+        <v>393.4019879271584</v>
       </c>
       <c r="M4" t="n">
-        <v>840.2784369496563</v>
+        <v>784.5877828974092</v>
       </c>
       <c r="N4" t="n">
-        <v>1217.769947825692</v>
+        <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1573.198076505455</v>
+        <v>1517.507422453208</v>
       </c>
       <c r="P4" t="n">
-        <v>1845.599623041337</v>
+        <v>1808.106634375109</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1798.56100972851</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1890.375540593318</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="U4" t="n">
-        <v>1361.213200431074</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="V4" t="n">
-        <v>1079.501733039103</v>
+        <v>1647.036192819219</v>
       </c>
       <c r="W4" t="n">
-        <v>1079.501733039103</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="X4" t="n">
-        <v>836.9378364849078</v>
+        <v>1372.183788991731</v>
       </c>
       <c r="Y4" t="n">
-        <v>836.9378364849078</v>
+        <v>1145.841020681474</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1091.481932871026</v>
+        <v>938.0105478030285</v>
       </c>
       <c r="C5" t="n">
-        <v>664.5812028843263</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D5" t="n">
-        <v>484.2713684533122</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E5" t="n">
-        <v>462.3348326415738</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F5" t="n">
-        <v>441.2510548713781</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>399.5154512777223</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>399.5154512777223</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>856.3013579804531</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>1313.087264683184</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="O5" t="n">
-        <v>1728.043288159434</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="P5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>1520.30675795911</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>1520.30675795911</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>1520.30675795911</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W5" t="n">
-        <v>1520.30675795911</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="X5" t="n">
-        <v>1108.586759126858</v>
+        <v>1276.094468310963</v>
       </c>
       <c r="Y5" t="n">
-        <v>1107.289893122152</v>
+        <v>1274.797602306257</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273854</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>316.0561247023296</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K6" t="n">
-        <v>772.8420314050604</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="L6" t="n">
-        <v>1229.627938107791</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="M6" t="n">
-        <v>1229.627938107791</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="N6" t="n">
-        <v>1229.627938107791</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O6" t="n">
-        <v>1229.627938107791</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346.9652306584402</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="C7" t="n">
-        <v>346.9652306584402</v>
+        <v>783.8450102269608</v>
       </c>
       <c r="D7" t="n">
-        <v>346.9652306584402</v>
+        <v>620.5282373537315</v>
       </c>
       <c r="E7" t="n">
-        <v>346.9652306584402</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="F7" t="n">
-        <v>346.9652306584402</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G7" t="n">
-        <v>180.7082609526723</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>695.080641322875</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>1628.425962247645</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T7" t="n">
-        <v>1385.086614473545</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U7" t="n">
-        <v>1104.902165973849</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="V7" t="n">
-        <v>823.1906985818782</v>
+        <v>1717.770047630966</v>
       </c>
       <c r="W7" t="n">
-        <v>548.3382947543912</v>
+        <v>1442.917643803479</v>
       </c>
       <c r="X7" t="n">
-        <v>537.1311993705058</v>
+        <v>1200.353747249284</v>
       </c>
       <c r="Y7" t="n">
-        <v>537.1311993705058</v>
+        <v>974.0109789390265</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1796.086427374292</v>
+        <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>1773.226101427997</v>
+        <v>915.1502218567327</v>
       </c>
       <c r="D8" t="n">
-        <v>1597.806787648507</v>
+        <v>491.857601041733</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.829847796364</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4805,25 +4807,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L8" t="n">
         <v>957.7672188505812</v>
       </c>
       <c r="M8" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="N8" t="n">
+        <v>957.7672188505812</v>
+      </c>
+      <c r="O8" t="n">
         <v>1508.432753835019</v>
       </c>
-      <c r="N8" t="n">
-        <v>2059.098288819458</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2107.354917580474</v>
-      </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4835,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.911252462377</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W8" t="n">
-        <v>2224.911252462377</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X8" t="n">
-        <v>2217.231657670528</v>
+        <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>2215.934791665823</v>
+        <v>1357.858912094558</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L9" t="n">
-        <v>866.8612493132769</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N9" t="n">
-        <v>1220.501010560616</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O9" t="n">
-        <v>1771.166545545054</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="P9" t="n">
-        <v>1771.166545545054</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>795.2141720205701</v>
+        <v>738.2594066832694</v>
       </c>
       <c r="C10" t="n">
-        <v>623.2416088994861</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="D10" t="n">
-        <v>459.9248360262568</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="E10" t="n">
-        <v>459.9248360262568</v>
+        <v>566.2868435621854</v>
       </c>
       <c r="F10" t="n">
-        <v>288.0630618008172</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
         <v>288.0630618008172</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1774.591756481815</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V10" t="n">
-        <v>1492.880289089844</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W10" t="n">
-        <v>1218.027885262357</v>
+        <v>1170.98927194953</v>
       </c>
       <c r="X10" t="n">
-        <v>975.4639887081618</v>
+        <v>928.425375395335</v>
       </c>
       <c r="Y10" t="n">
-        <v>795.2141720205701</v>
+        <v>928.425375395335</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2473.700620977018</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2046.799890990318</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1623.507270175318</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1197.530330323176</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>772.406148512576</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>368.0670861020246</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>70.19870757605941</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>70.19870757605941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>432.8021663929549</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>447.722880537582</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1316.431886791317</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2185.140893045052</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N11" t="n">
-        <v>3053.849899298787</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O11" t="n">
-        <v>3053.849899298787</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P11" t="n">
-        <v>3053.849899298787</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q11" t="n">
-        <v>3509.93537880297</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R11" t="n">
-        <v>3509.93537880297</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>3509.93537880297</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>3289.009807847603</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
-        <v>3030.654898444016</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2673.165483570265</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>2673.165483570265</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>2673.165483570265</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2673.165483570265</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>637.3221986075147</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>519.8162951250195</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>415.9763366403045</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>311.2744029132417</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>70.19870757605941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>70.19870757605941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J12" t="n">
-        <v>341.8961968556505</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K12" t="n">
-        <v>932.3811234239901</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L12" t="n">
-        <v>932.3811234239901</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M12" t="n">
-        <v>1801.090129677725</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="N12" t="n">
-        <v>1878.886338156569</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="O12" t="n">
-        <v>1878.886338156569</v>
+        <v>1748.774177950213</v>
       </c>
       <c r="P12" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q12" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R12" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1470.913958935139</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>905.942096674285</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>766.2492080275774</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>837.6109984873666</v>
+        <v>878.3707945649905</v>
       </c>
       <c r="C13" t="n">
-        <v>837.6109984873666</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="D13" t="n">
-        <v>674.2942256141373</v>
+        <v>706.3982314439065</v>
       </c>
       <c r="E13" t="n">
-        <v>508.0860197669908</v>
+        <v>540.1900255967601</v>
       </c>
       <c r="F13" t="n">
-        <v>336.2242455415513</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G13" t="n">
-        <v>169.9672758357834</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H13" t="n">
-        <v>169.9672758357834</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>70.19870757605941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1100.092753270726</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1477.584264146762</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1833.012392826525</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2123.611604748426</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2250.611734989188</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2203.573121676361</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2203.573121676361</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>1960.233773902261</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1680.049325402565</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V13" t="n">
-        <v>1398.337858010594</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W13" t="n">
-        <v>1270.340863753627</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X13" t="n">
-        <v>1027.776967199432</v>
+        <v>1104.713562875248</v>
       </c>
       <c r="Y13" t="n">
-        <v>1027.776967199432</v>
+        <v>878.3707945649905</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1292.99062144861</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>866.0898914619105</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>866.0898914619105</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>866.0898914619105</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>440.9657096513106</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>70.19870757605941</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>70.19870757605941</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>70.19870757605941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>70.19870757605941</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>70.19870757605941</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>70.19870757605941</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>938.9077138297945</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N14" t="n">
-        <v>1807.61672008353</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O14" t="n">
-        <v>2228.014285258957</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P14" t="n">
-        <v>2936.293564416884</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q14" t="n">
-        <v>3392.379043921067</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R14" t="n">
-        <v>3509.93537880297</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>3405.568084676111</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>3184.642513720744</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
-        <v>2926.287604317156</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2926.287604317156</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W14" t="n">
-        <v>2529.896254617503</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>2118.17625578525</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y14" t="n">
-        <v>1712.838985740141</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>637.3221986075147</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>519.8162951250195</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>415.9763366403045</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>311.2744029132417</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>70.19870757605941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>70.19870757605941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>70.19870757605941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K15" t="n">
-        <v>70.19870757605941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L15" t="n">
-        <v>141.4683256490991</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M15" t="n">
-        <v>1010.177331902834</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N15" t="n">
-        <v>1878.886338156569</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>1878.886338156569</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>1470.913958935139</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>905.942096674285</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>766.2492080275774</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>341.3163864385476</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3438233174636</v>
+        <v>697.8532300916962</v>
       </c>
       <c r="D16" t="n">
-        <v>169.3438233174636</v>
+        <v>534.5364572184669</v>
       </c>
       <c r="E16" t="n">
-        <v>169.3438233174636</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="F16" t="n">
-        <v>70.19870757605941</v>
+        <v>368.3282513713204</v>
       </c>
       <c r="G16" t="n">
-        <v>70.19870757605941</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H16" t="n">
-        <v>70.19870757605941</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>70.19870757605941</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>127.6900358002174</v>
+        <v>159.7940416299903</v>
       </c>
       <c r="K16" t="n">
-        <v>354.2176370060546</v>
+        <v>386.3216428358274</v>
       </c>
       <c r="L16" t="n">
-        <v>708.9069583004754</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M16" t="n">
-        <v>1100.092753270724</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N16" t="n">
-        <v>1477.584264146759</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O16" t="n">
-        <v>1833.012392826523</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P16" t="n">
-        <v>2123.611604748423</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q16" t="n">
-        <v>2250.611734989185</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R16" t="n">
-        <v>2250.611734989185</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S16" t="n">
-        <v>2080.47668750832</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T16" t="n">
-        <v>1837.13733973422</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U16" t="n">
-        <v>1556.952891234524</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V16" t="n">
-        <v>1275.241423842553</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W16" t="n">
-        <v>1000.389020015066</v>
+        <v>985.4544125320147</v>
       </c>
       <c r="X16" t="n">
-        <v>757.8251234608712</v>
+        <v>924.1959984019542</v>
       </c>
       <c r="Y16" t="n">
-        <v>531.4823551506132</v>
+        <v>697.8532300916962</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5500,13 @@
         <v>1690.508147261617</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409473</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988734</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.067963188322</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5519,19 +5521,19 @@
         <v>817.8110213813276</v>
       </c>
       <c r="L17" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5604,13 +5606,13 @@
         <v>939.1015214887346</v>
       </c>
       <c r="N18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.365091998858</v>
+        <v>326.3817789554952</v>
       </c>
       <c r="C19" t="n">
-        <v>675.392528877774</v>
+        <v>326.3817789554952</v>
       </c>
       <c r="D19" t="n">
-        <v>512.0757560045447</v>
+        <v>326.3817789554952</v>
       </c>
       <c r="E19" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5680,43 +5682,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100498</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R19" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S19" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T19" t="n">
-        <v>2063.001596794834</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U19" t="n">
-        <v>2063.001596794834</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V19" t="n">
-        <v>1781.290129402863</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W19" t="n">
-        <v>1506.437725575376</v>
+        <v>985.4544125320137</v>
       </c>
       <c r="X19" t="n">
-        <v>1263.873829021182</v>
+        <v>742.8905159778188</v>
       </c>
       <c r="Y19" t="n">
-        <v>1037.531060710924</v>
+        <v>516.5477476675609</v>
       </c>
     </row>
     <row r="20">
@@ -5756,19 +5758,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>1180.414480198223</v>
+        <v>1463.618246195026</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2467.904347614084</v>
       </c>
       <c r="N20" t="n">
-        <v>2988.069926596602</v>
+        <v>3444.155406100785</v>
       </c>
       <c r="O20" t="n">
-        <v>3833.214576747414</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5795,7 +5797,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5840,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M21" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="N21" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O21" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>373.4203922683193</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
-        <v>201.4478291472353</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
         <v>102.3027134058285</v>
@@ -5932,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>563.5863609803849</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5990,22 +5992,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P23" t="n">
-        <v>4997.579335409525</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6066,16 +6068,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M24" t="n">
-        <v>102.3027134058285</v>
+        <v>557.3635891120873</v>
       </c>
       <c r="N24" t="n">
         <v>557.3635891120873</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="C25" t="n">
-        <v>201.4478291472353</v>
+        <v>575.6239606180499</v>
       </c>
       <c r="D25" t="n">
-        <v>201.4478291472353</v>
+        <v>412.3071877448206</v>
       </c>
       <c r="E25" t="n">
-        <v>201.4478291472353</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="F25" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G25" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6300,28 +6302,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M27" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N27" t="n">
-        <v>692.7876399741681</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O27" t="n">
-        <v>1446.844867123559</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="P27" t="n">
-        <v>1446.844867123559</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="Q27" t="n">
         <v>1910.990343986338</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>543.5554397491844</v>
+        <v>440.483482374059</v>
       </c>
       <c r="C28" t="n">
-        <v>440.421457337036</v>
+        <v>268.510919252975</v>
       </c>
       <c r="D28" t="n">
-        <v>440.421457337036</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E28" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1477.48047715319</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.628073325703</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X28" t="n">
-        <v>960.064176771508</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.72140846125</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>366.6855125151251</v>
       </c>
       <c r="K29" t="n">
-        <v>651.5495334576516</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L29" t="n">
-        <v>1581.174581076928</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>2585.460682495986</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3561.711740982687</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4406.8563911335</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1158.289251381874</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>1112.773316863137</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>778.6022263052665</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C31" t="n">
-        <v>606.6296631841825</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="D31" t="n">
-        <v>606.6296631841825</v>
+        <v>154.4092158344085</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2112.580693338092</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1994.238731101243</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1712.527263709272</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1437.674859881785</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X31" t="n">
-        <v>1195.11096332759</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y31" t="n">
-        <v>968.7681950173321</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="32">
@@ -6701,25 +6703,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>651.5495334576516</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L32" t="n">
-        <v>1581.174581076928</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M32" t="n">
-        <v>2585.460682495986</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N32" t="n">
-        <v>3561.711740982687</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O32" t="n">
-        <v>4406.8563911335</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6780,22 +6782,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K33" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L33" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1529.586448057074</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O33" t="n">
-        <v>1529.586448057074</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P33" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q33" t="n">
         <v>1828.971033901635</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>599.7631605785773</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C34" t="n">
-        <v>599.7631605785773</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D34" t="n">
-        <v>599.7631605785773</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E34" t="n">
-        <v>433.5549547314308</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F34" t="n">
-        <v>261.6931805059912</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y34" t="n">
-        <v>789.9291292906429</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="35">
@@ -6935,49 +6937,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L35" t="n">
-        <v>1031.927761025105</v>
+        <v>1394.531219842001</v>
       </c>
       <c r="M35" t="n">
-        <v>2036.213862444163</v>
+        <v>2398.817321261059</v>
       </c>
       <c r="N35" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905341</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W35" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7011,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M36" t="n">
-        <v>109.7493563677404</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N36" t="n">
-        <v>1021.509065974867</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>563.5863609803849</v>
+        <v>368.279487512699</v>
       </c>
       <c r="C37" t="n">
-        <v>434.7678889587428</v>
+        <v>368.279487512699</v>
       </c>
       <c r="D37" t="n">
-        <v>434.7678889587428</v>
+        <v>368.279487512699</v>
       </c>
       <c r="E37" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="F37" t="n">
-        <v>268.5596831115964</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7114,31 +7116,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359502</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>985.4544125320151</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778202</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>516.5477476675622</v>
       </c>
     </row>
     <row r="38">
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.906172222724</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K38" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
-        <v>5115.135670291426</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="39">
@@ -7263,13 +7265,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1194.79262694784</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>778.6022263052664</v>
+        <v>608.0932463474674</v>
       </c>
       <c r="C40" t="n">
-        <v>606.6296631841824</v>
+        <v>608.0932463474674</v>
       </c>
       <c r="D40" t="n">
-        <v>606.6296631841824</v>
+        <v>608.0932463474674</v>
       </c>
       <c r="E40" t="n">
-        <v>440.4214573370359</v>
+        <v>441.8850405003209</v>
       </c>
       <c r="F40" t="n">
-        <v>268.5596831115964</v>
+        <v>270.0232662748813</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>103.7662965691134</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7348,34 +7350,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U40" t="n">
-        <v>1561.508865834983</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="V40" t="n">
-        <v>1279.797398443011</v>
+        <v>1542.018283751473</v>
       </c>
       <c r="W40" t="n">
-        <v>1004.944994615524</v>
+        <v>1267.165879923986</v>
       </c>
       <c r="X40" t="n">
-        <v>1004.944994615524</v>
+        <v>1024.601983369791</v>
       </c>
       <c r="Y40" t="n">
-        <v>778.6022263052664</v>
+        <v>798.2592150595331</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2449.851849654619</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.696762246847</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1658.404141431847</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1232.427201579705</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>807.3030197691047</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>402.9639573585533</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>105.0955788325882</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>70.19870757605939</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>785.7070155515585</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1654.416021805293</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M41" t="n">
-        <v>2523.125028059028</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.125028059028</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O41" t="n">
-        <v>3368.269678209841</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3509.935378802969</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3509.935378802969</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3509.935378802969</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3509.935378802969</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3509.935378802969</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3251.580469399381</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3251.580469399381</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>2855.189119699729</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>2855.189119699729</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y41" t="n">
-        <v>2449.851849654619</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>637.3221986075147</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>519.8162951250195</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>415.9763366403045</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>311.2744029132417</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>217.6285725961458</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>123.5748008137498</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>70.19870757605939</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>70.19870757605939</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>70.19870757605939</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L42" t="n">
-        <v>70.19870757605939</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M42" t="n">
-        <v>70.19870757605939</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N42" t="n">
-        <v>938.9077138297943</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O42" t="n">
-        <v>1807.616720083529</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P42" t="n">
-        <v>1878.886338156569</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q42" t="n">
-        <v>1878.886338156569</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R42" t="n">
-        <v>1878.886338156569</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1797.562090717824</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1655.682155015502</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1470.913958935139</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1265.940820074405</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1069.419442907622</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>905.942096674285</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>766.2492080275774</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.4514339194154</v>
+        <v>3666.855944130192</v>
       </c>
       <c r="C43" t="n">
-        <v>339.4788707983314</v>
+        <v>3494.883381009108</v>
       </c>
       <c r="D43" t="n">
-        <v>339.4788707983314</v>
+        <v>3331.566608135879</v>
       </c>
       <c r="E43" t="n">
-        <v>339.4788707983314</v>
+        <v>3331.566608135879</v>
       </c>
       <c r="F43" t="n">
-        <v>167.6170965728918</v>
+        <v>3159.704833910439</v>
       </c>
       <c r="G43" t="n">
-        <v>70.19870757605939</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="H43" t="n">
-        <v>70.19870757605939</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I43" t="n">
-        <v>70.19870757605939</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J43" t="n">
-        <v>127.6900358002174</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K43" t="n">
-        <v>354.2176370060546</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L43" t="n">
-        <v>708.9069583004754</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M43" t="n">
-        <v>1100.092753270726</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N43" t="n">
-        <v>1477.584264146762</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O43" t="n">
-        <v>1833.012392826525</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P43" t="n">
-        <v>2123.611604748426</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q43" t="n">
-        <v>2250.611734989188</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R43" t="n">
-        <v>2250.611734989188</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S43" t="n">
-        <v>2250.611734989188</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T43" t="n">
-        <v>2007.272387215088</v>
+        <v>4654.622661723635</v>
       </c>
       <c r="U43" t="n">
-        <v>1727.087938715392</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="V43" t="n">
-        <v>1445.376471323421</v>
+        <v>4374.43821322394</v>
       </c>
       <c r="W43" t="n">
-        <v>1170.524067495934</v>
+        <v>4099.585809396453</v>
       </c>
       <c r="X43" t="n">
-        <v>927.960170941739</v>
+        <v>3857.021912842258</v>
       </c>
       <c r="Y43" t="n">
-        <v>701.617402631481</v>
+        <v>3857.021912842258</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2473.700620977018</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C44" t="n">
-        <v>2046.799890990318</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D44" t="n">
-        <v>1623.507270175318</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>1197.530330323176</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>772.406148512576</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G44" t="n">
-        <v>368.0670861020246</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H44" t="n">
-        <v>70.19870757605939</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I44" t="n">
-        <v>70.19870757605939</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>70.19870757605939</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>70.19870757605939</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>927.3727161446874</v>
+        <v>1715.81204584877</v>
       </c>
       <c r="M44" t="n">
-        <v>1796.081722398422</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N44" t="n">
-        <v>2664.790728652157</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O44" t="n">
-        <v>3509.935378802969</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P44" t="n">
-        <v>3509.935378802969</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3509.935378802969</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3509.935378802969</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3405.56808467611</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3184.642513720743</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>2926.287604317155</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2568.798189443405</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>2473.700620977018</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
-        <v>2473.700620977018</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y44" t="n">
-        <v>2473.700620977018</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>637.3221986075147</v>
+        <v>3873.571530742373</v>
       </c>
       <c r="C45" t="n">
-        <v>519.8162951250195</v>
+        <v>3756.065627259878</v>
       </c>
       <c r="D45" t="n">
-        <v>415.9763366403045</v>
+        <v>3652.225668775163</v>
       </c>
       <c r="E45" t="n">
-        <v>311.2744029132417</v>
+        <v>3547.523735048101</v>
       </c>
       <c r="F45" t="n">
-        <v>217.6285725961458</v>
+        <v>3453.877904731005</v>
       </c>
       <c r="G45" t="n">
-        <v>123.5748008137498</v>
+        <v>3359.824132948609</v>
       </c>
       <c r="H45" t="n">
-        <v>70.19870757605939</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="I45" t="n">
-        <v>70.19870757605939</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="J45" t="n">
-        <v>341.8961968556505</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="K45" t="n">
-        <v>932.3811234239901</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="L45" t="n">
-        <v>1414.74086129379</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="M45" t="n">
-        <v>1414.74086129379</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="N45" t="n">
-        <v>1414.74086129379</v>
+        <v>3306.448039710919</v>
       </c>
       <c r="O45" t="n">
-        <v>1414.74086129379</v>
+        <v>4195.92931772239</v>
       </c>
       <c r="P45" t="n">
-        <v>1414.74086129379</v>
+        <v>4650.990193428648</v>
       </c>
       <c r="Q45" t="n">
-        <v>1878.886338156569</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R45" t="n">
-        <v>1878.886338156569</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S45" t="n">
-        <v>1797.562090717824</v>
+        <v>5033.811422852682</v>
       </c>
       <c r="T45" t="n">
-        <v>1655.682155015502</v>
+        <v>4891.93148715036</v>
       </c>
       <c r="U45" t="n">
-        <v>1470.913958935139</v>
+        <v>4707.163291069997</v>
       </c>
       <c r="V45" t="n">
-        <v>1265.940820074405</v>
+        <v>4502.190152209264</v>
       </c>
       <c r="W45" t="n">
-        <v>1069.419442907622</v>
+        <v>4305.668775042481</v>
       </c>
       <c r="X45" t="n">
-        <v>905.942096674285</v>
+        <v>4142.191428809144</v>
       </c>
       <c r="Y45" t="n">
-        <v>766.2492080275774</v>
+        <v>4002.498540162436</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>414.0330449225829</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="C46" t="n">
-        <v>242.060481801499</v>
+        <v>3341.604252503098</v>
       </c>
       <c r="D46" t="n">
-        <v>242.060481801499</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="E46" t="n">
-        <v>242.060481801499</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="F46" t="n">
-        <v>70.19870757605939</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="G46" t="n">
-        <v>70.19870757605939</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H46" t="n">
-        <v>70.19870757605939</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I46" t="n">
-        <v>70.19870757605939</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J46" t="n">
-        <v>127.6900358002174</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K46" t="n">
-        <v>354.2176370060546</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L46" t="n">
-        <v>708.9069583004754</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M46" t="n">
-        <v>1100.092753270726</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N46" t="n">
-        <v>1477.584264146762</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O46" t="n">
-        <v>1833.012392826525</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P46" t="n">
-        <v>2123.611604748426</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q46" t="n">
-        <v>2250.611734989188</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R46" t="n">
-        <v>2250.611734989188</v>
+        <v>5068.0970569786</v>
       </c>
       <c r="S46" t="n">
-        <v>2153.193345992355</v>
+        <v>4897.962009497735</v>
       </c>
       <c r="T46" t="n">
-        <v>1909.853998218255</v>
+        <v>4837.42520579877</v>
       </c>
       <c r="U46" t="n">
-        <v>1629.669549718559</v>
+        <v>4557.240757299074</v>
       </c>
       <c r="V46" t="n">
-        <v>1347.958082326588</v>
+        <v>4275.529289907103</v>
       </c>
       <c r="W46" t="n">
-        <v>1073.105678499101</v>
+        <v>4000.676886079616</v>
       </c>
       <c r="X46" t="n">
-        <v>830.5417819449065</v>
+        <v>3758.112989525421</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.1990136346485</v>
+        <v>3531.770221215163</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>35.76460079480934</v>
+        <v>519.5412919487771</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>39.7358160668222</v>
       </c>
       <c r="N2" t="n">
-        <v>480.7446103807745</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>498.7908651163583</v>
+        <v>521.167650509992</v>
       </c>
       <c r="P2" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>483.9149924745637</v>
+        <v>506.2917778681974</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662958</v>
       </c>
       <c r="N3" t="n">
-        <v>381.2527255747682</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>484.5717954825564</v>
+        <v>506.94858087619</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>33.56260952839192</v>
       </c>
       <c r="R3" t="n">
         <v>106.5207073584907</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.964654452712</v>
+        <v>20.97529217030811</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8152,10 +8154,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>297.533877966958</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>498.831168659766</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>456.538457816883</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>36.12467460459804</v>
@@ -8292,28 +8294,28 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>177.6973456537768</v>
       </c>
       <c r="L6" t="n">
-        <v>483.9149924745637</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>99.71676862514317</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8380,7 +8382,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>100.3044564185466</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8389,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.9153581548562</v>
+        <v>315.915358154857</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8453,28 +8455,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>86.13502881159596</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>300.5986134498011</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,28 +8531,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>378.5549082613589</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O9" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>98.17301358442491</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8690,28 +8692,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>50.83602922372559</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>915.7958871333655</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>914.9151076001743</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>914.7634675351886</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>35.03264989479647</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8766,7 +8768,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
@@ -8775,16 +8777,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>900.5806252130706</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N12" t="n">
-        <v>99.92505698005093</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>185.6255543726317</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>914.9151076001743</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>914.7634675351886</v>
+        <v>967.5075822902267</v>
       </c>
       <c r="O14" t="n">
-        <v>462.0349645837281</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -8948,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,19 +9011,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>94.5045999193202</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M15" t="n">
-        <v>900.5806252130706</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>898.8268729142842</v>
+        <v>279.6168721116282</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
@@ -9167,10 +9169,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
-        <v>229.9501690078907</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>765.1769988726438</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9182,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9252,7 +9254,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>534.215094511344</v>
+        <v>1003.048909524252</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
@@ -9261,7 +9263,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R18" t="n">
         <v>23.67291939414415</v>
@@ -9404,10 +9406,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>324.3764525304035</v>
       </c>
       <c r="M20" t="n">
-        <v>877.2336749314295</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9419,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9486,22 +9488,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1089.749849175</v>
+        <v>1043.774157741933</v>
       </c>
       <c r="N21" t="n">
-        <v>781.6471621574452</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
@@ -9653,10 +9655,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9714,7 +9716,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>22.39923383333334</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>23.09678051232798</v>
+        <v>208.3123223574469</v>
       </c>
       <c r="N24" t="n">
-        <v>481.0004784218839</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>921.6378271075471</v>
@@ -9875,7 +9877,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
         <v>977.3272420480539</v>
@@ -9890,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
@@ -9966,13 +9968,13 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>784.8458565397888</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>491.5808533018869</v>
+        <v>126.0397288826768</v>
       </c>
       <c r="R27" t="n">
         <v>23.67291939414415</v>
@@ -10109,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>296.4732919192194</v>
       </c>
       <c r="K29" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10130,10 +10132,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>1042.020405443146</v>
       </c>
       <c r="O30" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,7 +10351,7 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>590.5593685239236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
@@ -10367,10 +10369,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>472.1756697257304</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,25 +10430,25 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>573.1865904302379</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
-        <v>324.1795137750922</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>106.5207073584907</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
         <v>35.76460079480934</v>
@@ -10595,13 +10597,13 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>632.4842746885297</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>728.3675687028212</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
@@ -10659,34 +10661,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>299.9167405677024</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>942.3124318571035</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10835,16 +10837,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
-        <v>891.0724241548241</v>
+        <v>859.128966425699</v>
       </c>
       <c r="P38" t="n">
-        <v>218.8019602116006</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10911,7 +10913,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>226.402256022168</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
         <v>921.6378271075471</v>
@@ -10920,7 +10922,7 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>915.7958871333652</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M41" t="n">
-        <v>914.9151076001741</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
-        <v>180.672029076018</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
@@ -11148,19 +11150,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>898.826872914284</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>900.6557344229645</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>93.76035440991976</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>904.144374320126</v>
+        <v>579.1176643018625</v>
       </c>
       <c r="M44" t="n">
-        <v>914.9151076001741</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
-        <v>914.7634675351884</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11315,10 +11317,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,13 +11375,13 @@
         <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
-        <v>509.7471451685729</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
         <v>23.09678051232798</v>
@@ -11388,10 +11390,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>481.4282914131703</v>
       </c>
       <c r="Q45" t="n">
         <v>491.5808533018869</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.1796666813</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439303</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>145.3868554748146</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>79.31046371040659</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>421.7171704536211</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>33.23633973194715</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407056</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.54790254396354</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.9145207250131</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>71.98949189919506</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>179.492427599893</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>112.8510053776901</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>23.38895171247768</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>118.557719078891</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>71.9894918991925</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>4.658947683704582</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="C28" t="n">
-        <v>68.15019490184625</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24844,13 +24846,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>112.9606863843808</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
         <v>142.3583058069271</v>
@@ -24883,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>160.2240614002185</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>6.797837579549139</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
         <v>142.3583058069271</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>41.4787314716304</v>
       </c>
       <c r="C37" t="n">
-        <v>42.72255018844743</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -25324,13 +25326,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>140.9093584752751</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25603,16 +25605,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>19.29567626267823</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>58.15818615313856</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.15019490184608</v>
+        <v>40.63291346401758</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>298.2808434209333</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>71.9894918991922</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>180.9745186343829</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>554799.0792971479</v>
+        <v>555717.0066779337</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>554799.0792971479</v>
+        <v>558689.0541569317</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>438873.8349589419</v>
+        <v>563091.8164156388</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>438873.8349589418</v>
+        <v>563091.8164156389</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>563091.8164156388</v>
+        <v>563091.8164156387</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>563091.8164156388</v>
+        <v>563091.8164156389</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>563091.8164156388</v>
+        <v>563091.8164156389</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>438873.8349589418</v>
+        <v>563091.8164156388</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>438873.8349589419</v>
+        <v>563091.8164156389</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>495076.2678094887</v>
       </c>
       <c r="C2" t="n">
-        <v>495076.2678094887</v>
+        <v>495076.2678094888</v>
       </c>
       <c r="D2" t="n">
         <v>495076.2678094887</v>
       </c>
       <c r="E2" t="n">
-        <v>372354.5049260403</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="F2" t="n">
-        <v>372354.5049260402</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="G2" t="n">
-        <v>477725.8426668304</v>
+        <v>477725.8426668305</v>
       </c>
       <c r="H2" t="n">
+        <v>477725.8426668303</v>
+      </c>
+      <c r="I2" t="n">
         <v>477725.8426668302</v>
-      </c>
-      <c r="I2" t="n">
-        <v>477725.8426668304</v>
       </c>
       <c r="J2" t="n">
         <v>477725.8426668301</v>
@@ -26344,16 +26346,16 @@
         <v>477725.8426668303</v>
       </c>
       <c r="M2" t="n">
-        <v>477725.8426668304</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="N2" t="n">
         <v>477725.8426668305</v>
       </c>
       <c r="O2" t="n">
-        <v>372354.5049260401</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="P2" t="n">
-        <v>372354.5049260402</v>
+        <v>477725.8426668302</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361228</v>
       </c>
       <c r="D3" t="n">
-        <v>29456.39286176439</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95919.98339863044</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109990.3304731534</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.60035701984</v>
       </c>
       <c r="L3" t="n">
-        <v>24000.08990045009</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>80058.2880951453</v>
+        <v>180063.8714551677</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191810.9398986468</v>
+        <v>187607.6695456101</v>
       </c>
       <c r="C4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="D4" t="n">
         <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>45226.45917475759</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="F4" t="n">
-        <v>45226.45917475755</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187957</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187959</v>
@@ -26439,7 +26441,7 @@
         <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="K4" t="n">
         <v>58064.51385187964</v>
@@ -26448,16 +26450,16 @@
         <v>58064.51385187964</v>
       </c>
       <c r="M4" t="n">
+        <v>58064.51385187964</v>
+      </c>
+      <c r="N4" t="n">
+        <v>58064.51385187965</v>
+      </c>
+      <c r="O4" t="n">
+        <v>58064.51385187959</v>
+      </c>
+      <c r="P4" t="n">
         <v>58064.51385187963</v>
-      </c>
-      <c r="N4" t="n">
-        <v>58064.51385187964</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45226.45917475761</v>
-      </c>
-      <c r="P4" t="n">
-        <v>45226.45917475762</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216125</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>53351.01775780514</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>53351.01775780514</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26500,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>53351.01775780513</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>53351.01775780513</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86958.89302249302</v>
+        <v>82302.67937212624</v>
       </c>
       <c r="C6" t="n">
-        <v>241584.6136406135</v>
+        <v>230224.7808192705</v>
       </c>
       <c r="D6" t="n">
-        <v>224175.2216311184</v>
+        <v>253631.6144928828</v>
       </c>
       <c r="E6" t="n">
-        <v>177857.0445948471</v>
+        <v>126171.9100698805</v>
       </c>
       <c r="F6" t="n">
-        <v>273777.0279934775</v>
+        <v>341911.2666265209</v>
       </c>
       <c r="G6" t="n">
-        <v>231920.9361533677</v>
+        <v>341911.2666265211</v>
       </c>
       <c r="H6" t="n">
+        <v>341911.2666265211</v>
+      </c>
+      <c r="I6" t="n">
+        <v>341911.2666265209</v>
+      </c>
+      <c r="J6" t="n">
+        <v>215333.998046232</v>
+      </c>
+      <c r="K6" t="n">
+        <v>323264.6662695011</v>
+      </c>
+      <c r="L6" t="n">
         <v>341911.266626521</v>
       </c>
-      <c r="I6" t="n">
-        <v>341911.2666265211</v>
-      </c>
-      <c r="J6" t="n">
-        <v>221188.7496837639</v>
-      </c>
-      <c r="K6" t="n">
-        <v>341911.2666265209</v>
-      </c>
-      <c r="L6" t="n">
-        <v>317911.1767260709</v>
-      </c>
       <c r="M6" t="n">
-        <v>261852.9785313758</v>
+        <v>161847.3951713533</v>
       </c>
       <c r="N6" t="n">
         <v>341911.2666265211</v>
       </c>
       <c r="O6" t="n">
-        <v>273777.0279934774</v>
+        <v>341911.266626521</v>
       </c>
       <c r="P6" t="n">
-        <v>273777.0279934775</v>
+        <v>341911.2666265209</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>877.4838447007426</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>877.4838447007426</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>877.4838447007423</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>877.4838447007423</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="D4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>321.2560315851485</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>401.3000728721142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851483</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162631</v>
       </c>
       <c r="L4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>321.2560315851485</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>401.3000728721142</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27385,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
+        <v>355.826447001754</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>353.0609246327053</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -27552,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2.284315397371259</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>253.7479241126522</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>82.23069669041814</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
       <c r="D5" t="n">
-        <v>240.5529585201457</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>294.8896947407055</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27777,10 +27779,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,19 +27830,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>232.7324384170693</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>229.0432331586064</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
       </c>
-      <c r="D8" t="n">
-        <v>245.3945739651546</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27907,7 +27909,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>206.2762395340006</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27916,10 +27918,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>59.29601254814088</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.63202210643965</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.063161046444251e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28515,7 +28517,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-2.724349481640872e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.43088606097896e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-7.955339370490157e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.304553167390384</v>
       </c>
       <c r="N2" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9096973612266</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539678</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>10.81557123941343</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.01063771759611215</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34872,10 +34874,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>275.1530773089715</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>461.3999057603342</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>419.1474984608589</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>155.2981118204434</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>77.9459274203145</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35100,7 +35102,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>77.72901652706079</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35109,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968705</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35173,28 +35175,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>48.74406945557187</v>
-      </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>357.2118800478172</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>75.42597529544641</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35410,28 +35412,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>15.07142842891625</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>877.4838447007426</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4838447007426</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>877.4838447007426</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
@@ -35495,16 +35497,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>877.4838447007426</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N12" t="n">
-        <v>78.58202876650925</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>163.8547131678031</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>877.4838447007426</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>877.4838447007426</v>
+        <v>930.2279594557806</v>
       </c>
       <c r="O14" t="n">
-        <v>424.644005227704</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35668,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>71.98951320509065</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M15" t="n">
-        <v>877.4838447007426</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>877.4838447007426</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.07204871127072</v>
+        <v>58.0720487112745</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35811,7 +35813,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
-        <v>395.1371666366143</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N16" t="n">
         <v>381.3045564404402</v>
@@ -35887,10 +35889,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
-        <v>191.6381265752678</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>727.745735973212</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35902,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35972,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>512.8720662978023</v>
+        <v>981.7058813107108</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35981,7 +35983,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.137166636617</v>
+        <v>395.13716663662</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36124,10 +36126,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>286.0644100977806</v>
       </c>
       <c r="M20" t="n">
-        <v>839.8024120319977</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36139,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36206,22 +36208,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1066.653068662672</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="N21" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
@@ -36373,10 +36375,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36434,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>185.2155418451189</v>
       </c>
       <c r="N24" t="n">
-        <v>459.6574502083422</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>898.4659373853249</v>
@@ -36595,7 +36597,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>939.015199615431</v>
@@ -36610,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36686,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>468.8338150129084</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>267.0533324336329</v>
       </c>
       <c r="K29" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36850,10 +36852,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1020.677377229605</v>
       </c>
       <c r="O30" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>554.7947677291143</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
@@ -37087,10 +37089,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>436.0509951211323</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>551.8435622166962</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>302.4086725702635</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>82.84778796434657</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37315,13 +37317,13 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>595.2046518540836</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>690.79220689259</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>920.9694036435619</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391573</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37555,16 +37557,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
-        <v>853.6814647988001</v>
+        <v>821.7380070696748</v>
       </c>
       <c r="P38" t="n">
-        <v>181.2265984013693</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>898.4659373853249</v>
@@ -37640,7 +37642,7 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,7 +37718,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968734</v>
       </c>
       <c r="Q40" t="n">
         <v>128.2829598391535</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>877.4838447007423</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>877.4838447007423</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
-        <v>143.0966672657867</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37868,19 +37870,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>877.4838447007423</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>877.4838447007423</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>71.9895132050911</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>865.8323318875031</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="M44" t="n">
-        <v>877.4838447007423</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
-        <v>877.4838447007423</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38035,10 +38037,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>487.2320584543434</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,10 +38110,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>459.6574502083416</v>
       </c>
       <c r="Q45" t="n">
         <v>468.8338150129084</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_34.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2159297.998460833</v>
+        <v>2158601.337255742</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114748</v>
+        <v>612367.9462114755</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6495421.05759686</v>
+        <v>6495421.057596861</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>95.60045681915403</v>
       </c>
       <c r="E2" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
-        <v>65.04649299073976</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
         <v>1.283897344658556</v>
@@ -825,7 +825,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
@@ -834,10 +834,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.28391178232732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>115.5882521522199</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.4191839581966</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>419.0596946068497</v>
@@ -907,7 +907,7 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
-        <v>420.8729399924937</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>57.0676845728945</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D7" t="n">
         <v>161.683605144497</v>
@@ -1065,7 +1065,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
         <v>164.5944000087102</v>
@@ -1101,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>46.1619143009821</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
@@ -1147,7 +1147,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>49.49512077555119</v>
+        <v>57.0676845728945</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>110.8471439350443</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>161.673798810038</v>
       </c>
       <c r="W10" t="n">
         <v>272.1038797892121</v>
@@ -1359,7 +1359,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
         <v>421.717170453621</v>
@@ -1384,7 +1384,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864467</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -1435,7 +1435,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439303</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.8838185767686</v>
       </c>
       <c r="E13" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1584,7 +1584,7 @@
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>277.3826040147022</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,10 +1593,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>160.8277938782463</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
         <v>422.6317226868329</v>
@@ -1672,7 +1672,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439311</v>
       </c>
       <c r="Y14" t="n">
         <v>401.2838973446586</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686383</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>60.64582998875988</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1855,10 +1855,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>400.2956717864458</v>
+        <v>400.2956717864466</v>
       </c>
       <c r="H17" t="n">
         <v>294.8896947407055</v>
@@ -2004,13 +2004,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>51.69511841098485</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.70658994605395</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>165.5938898061686</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -2487,16 +2487,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>161.6737988100371</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2544,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>75.30362264056416</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>238.5792768260963</v>
       </c>
       <c r="U28" t="n">
         <v>277.3826040146988</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>51.58543740429417</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>124.229055783122</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>240.905954296359</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3328,7 +3328,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
         <v>407.6027988439302</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>146.7855775533146</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>98.26334559068066</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3663,22 +3663,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.448947331652032</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3720,7 +3720,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
         <v>272.1038797892121</v>
@@ -3802,7 +3802,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026577</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3903,7 +3903,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9614865446926</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3957,7 +3957,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
@@ -3966,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -4030,7 +4030,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U44" t="n">
         <v>255.7713603095518</v>
@@ -4137,25 +4137,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T46" t="n">
-        <v>59.93143566197608</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>168.7534004685691</v>
+        <v>1448.465634567581</v>
       </c>
       <c r="C2" t="n">
-        <v>145.8930745222733</v>
+        <v>1425.605308621285</v>
       </c>
       <c r="D2" t="n">
-        <v>126.6408577476776</v>
+        <v>1329.03919062214</v>
       </c>
       <c r="E2" t="n">
-        <v>104.7043219359392</v>
+        <v>903.0622507699974</v>
       </c>
       <c r="F2" t="n">
-        <v>39.00079366246474</v>
+        <v>477.9380689593976</v>
       </c>
       <c r="G2" t="n">
-        <v>38.70213529231743</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="H2" t="n">
-        <v>38.70213529231743</v>
+        <v>73.59900654884623</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J2" t="n">
         <v>401.305594109213</v>
       </c>
       <c r="K2" t="n">
-        <v>880.2445183516411</v>
+        <v>403.5871017449297</v>
       </c>
       <c r="L2" t="n">
-        <v>880.2445183516411</v>
+        <v>403.5871017449297</v>
       </c>
       <c r="M2" t="n">
-        <v>882.5260259873576</v>
+        <v>403.5871017449297</v>
       </c>
       <c r="N2" t="n">
-        <v>882.5260259873576</v>
+        <v>882.5260259873579</v>
       </c>
       <c r="O2" t="n">
-        <v>1361.464950229786</v>
+        <v>882.5260259873579</v>
       </c>
       <c r="P2" t="n">
         <v>1361.464950229786</v>
@@ -4354,28 +4354,28 @@
         <v>1817.550429733969</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S2" t="n">
         <v>1830.739470489012</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533645</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="U2" t="n">
-        <v>1351.458990130057</v>
+        <v>1830.739470489012</v>
       </c>
       <c r="V2" t="n">
-        <v>993.9695752563066</v>
+        <v>1473.250055615262</v>
       </c>
       <c r="W2" t="n">
-        <v>597.5782255566535</v>
+        <v>1473.250055615262</v>
       </c>
       <c r="X2" t="n">
-        <v>185.8582267244007</v>
+        <v>1465.570460823413</v>
       </c>
       <c r="Y2" t="n">
-        <v>184.5613607196951</v>
+        <v>1464.273594818707</v>
       </c>
     </row>
     <row r="3">
@@ -4391,46 +4391,46 @@
         <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565624</v>
+        <v>384.4797643565625</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294996</v>
+        <v>279.7778306294997</v>
       </c>
       <c r="F3" t="n">
         <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000783</v>
+        <v>92.07822853000785</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I3" t="n">
-        <v>46.14877825422927</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J3" t="n">
-        <v>317.8462675338204</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K3" t="n">
-        <v>317.8462675338204</v>
+        <v>410.5729931455423</v>
       </c>
       <c r="L3" t="n">
-        <v>796.7851917762484</v>
+        <v>889.5119173879706</v>
       </c>
       <c r="M3" t="n">
-        <v>1275.724116018677</v>
+        <v>1368.450841630399</v>
       </c>
       <c r="N3" t="n">
-        <v>1275.724116018677</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="O3" t="n">
-        <v>1754.663040261105</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="P3" t="n">
-        <v>1754.663040261105</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1765.370455788124</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
         <v>1847.389765872827</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.6750519694078</v>
+        <v>878.3184210649847</v>
       </c>
       <c r="C4" t="n">
-        <v>783.7024888483238</v>
+        <v>706.3458579439007</v>
       </c>
       <c r="D4" t="n">
-        <v>620.3857159750945</v>
+        <v>543.0290850706714</v>
       </c>
       <c r="E4" t="n">
-        <v>620.3857159750945</v>
+        <v>376.8208792235249</v>
       </c>
       <c r="F4" t="n">
-        <v>448.523941749655</v>
+        <v>204.9591049980853</v>
       </c>
       <c r="G4" t="n">
-        <v>282.2669720438871</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="H4" t="n">
-        <v>138.4707035520415</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231743</v>
+        <v>38.70213529231744</v>
       </c>
       <c r="K4" t="n">
-        <v>38.71266663273758</v>
+        <v>38.71266663273803</v>
       </c>
       <c r="L4" t="n">
-        <v>393.4019879271584</v>
+        <v>393.4019879271588</v>
       </c>
       <c r="M4" t="n">
-        <v>784.5877828974092</v>
+        <v>784.5877828974096</v>
       </c>
       <c r="N4" t="n">
         <v>1162.079293773445</v>
       </c>
       <c r="O4" t="n">
-        <v>1517.507422453208</v>
+        <v>1517.507422453209</v>
       </c>
       <c r="P4" t="n">
-        <v>1808.106634375109</v>
+        <v>1808.10663437511</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615871</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="R4" t="n">
-        <v>1890.375540593318</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="S4" t="n">
-        <v>1890.375540593318</v>
+        <v>1935.106764615872</v>
       </c>
       <c r="T4" t="n">
-        <v>1647.036192819219</v>
+        <v>1691.767416841772</v>
       </c>
       <c r="U4" t="n">
-        <v>1647.036192819219</v>
+        <v>1411.582968342076</v>
       </c>
       <c r="V4" t="n">
-        <v>1647.036192819219</v>
+        <v>1411.582968342076</v>
       </c>
       <c r="W4" t="n">
-        <v>1372.183788991731</v>
+        <v>1411.582968342076</v>
       </c>
       <c r="X4" t="n">
-        <v>1372.183788991731</v>
+        <v>1294.827158087308</v>
       </c>
       <c r="Y4" t="n">
-        <v>1145.841020681474</v>
+        <v>1068.48438977705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>938.0105478030285</v>
+        <v>938.0105478030287</v>
       </c>
       <c r="C5" t="n">
-        <v>915.1502218567327</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D5" t="n">
-        <v>491.857601041733</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E5" t="n">
-        <v>469.9210652299946</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F5" t="n">
         <v>44.79688341939484</v>
@@ -4570,22 +4570,22 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="L5" t="n">
+        <v>407.101683866143</v>
+      </c>
+      <c r="M5" t="n">
         <v>957.7672188505812</v>
       </c>
-      <c r="L5" t="n">
-        <v>1508.432753835019</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1556.689382596036</v>
-      </c>
       <c r="N5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="O5" t="n">
-        <v>1556.689382596036</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
         <v>2107.354917580474</v>
@@ -4594,25 +4594,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1641.263477976562</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1283.774063102812</v>
+        <v>2167.26712663117</v>
       </c>
       <c r="W5" t="n">
-        <v>1283.774063102812</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X5" t="n">
-        <v>1276.094468310963</v>
+        <v>1359.155778099264</v>
       </c>
       <c r="Y5" t="n">
-        <v>1274.797602306257</v>
+        <v>953.8185080541547</v>
       </c>
     </row>
     <row r="6">
@@ -4646,16 +4646,16 @@
         <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>205.6899987133984</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="L6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>756.3555336978366</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
         <v>1307.021068682275</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>783.8450102269608</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C7" t="n">
-        <v>783.8450102269608</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D7" t="n">
-        <v>620.5282373537315</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E7" t="n">
-        <v>454.3200315065851</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F7" t="n">
         <v>454.3200315065851</v>
@@ -4743,34 +4743,34 @@
         <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
+        <v>2224.911252462376</v>
+      </c>
+      <c r="R7" t="n">
         <v>2224.911252462377</v>
       </c>
-      <c r="R7" t="n">
-        <v>2177.87263914955</v>
-      </c>
       <c r="S7" t="n">
-        <v>2007.737591668685</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1764.398243894585</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V7" t="n">
-        <v>1717.770047630966</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W7" t="n">
-        <v>1442.917643803479</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X7" t="n">
-        <v>1200.353747249284</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y7" t="n">
-        <v>974.0109789390265</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="8">
@@ -4783,16 +4783,16 @@
         <v>1342.050951843433</v>
       </c>
       <c r="C8" t="n">
-        <v>915.1502218567327</v>
+        <v>1319.190625897137</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>448.8372874597989</v>
       </c>
       <c r="G8" t="n">
         <v>44.49822504924753</v>
@@ -4816,7 +4816,7 @@
         <v>957.7672188505812</v>
       </c>
       <c r="N8" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O8" t="n">
         <v>1508.432753835019</v>
@@ -4837,19 +4837,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>2174.916180971921</v>
+        <v>2167.26712663117</v>
       </c>
       <c r="V8" t="n">
-        <v>2174.916180971921</v>
+        <v>2167.26712663117</v>
       </c>
       <c r="W8" t="n">
-        <v>2174.916180971921</v>
+        <v>1770.875776931517</v>
       </c>
       <c r="X8" t="n">
         <v>1763.196182139668</v>
       </c>
       <c r="Y8" t="n">
-        <v>1357.858912094558</v>
+        <v>1761.899316134963</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>595.1637600336857</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>1145.829295018124</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1696.494830002562</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1696.494830002562</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
-        <v>1696.494830002562</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
         <v>1771.166545545054</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>738.2594066832694</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>566.2868435621854</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>566.2868435621854</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>566.2868435621854</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
         <v>454.3200315065851</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T10" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U10" t="n">
-        <v>1727.553143168988</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V10" t="n">
-        <v>1445.841675777017</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1170.98927194953</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>928.425375395335</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>928.425375395335</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
         <v>435.0679631883225</v>
@@ -5047,22 +5047,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M11" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N11" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O11" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P11" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q11" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R11" t="n">
         <v>5115.135670291427</v>
@@ -5117,31 +5117,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>692.7876399741681</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M12" t="n">
-        <v>1748.774177950213</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.774177950213</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O12" t="n">
-        <v>1748.774177950213</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
         <v>1910.990343986338</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>878.3707945649905</v>
+        <v>834.4360146577183</v>
       </c>
       <c r="C13" t="n">
-        <v>706.3982314439065</v>
+        <v>662.4634515366342</v>
       </c>
       <c r="D13" t="n">
-        <v>706.3982314439065</v>
+        <v>512.0757560045447</v>
       </c>
       <c r="E13" t="n">
-        <v>540.1900255967601</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="F13" t="n">
-        <v>368.3282513713204</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="G13" t="n">
-        <v>202.0712816655526</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
         <v>202.0712816655526</v>
@@ -5232,19 +5232,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751466</v>
       </c>
       <c r="V13" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751466</v>
       </c>
       <c r="W13" t="n">
-        <v>1267.165879923982</v>
+        <v>1267.165879923979</v>
       </c>
       <c r="X13" t="n">
-        <v>1104.713562875248</v>
+        <v>1024.601983369784</v>
       </c>
       <c r="Y13" t="n">
-        <v>878.3707945649905</v>
+        <v>1024.601983369784</v>
       </c>
     </row>
     <row r="14">
@@ -5287,19 +5287,19 @@
         <v>1180.414480198223</v>
       </c>
       <c r="M14" t="n">
-        <v>2184.700581617281</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N14" t="n">
-        <v>3105.626261478504</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O14" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P14" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q14" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
         <v>5115.135670291427</v>
@@ -5320,10 +5320,10 @@
         <v>3777.607131232209</v>
       </c>
       <c r="X14" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M15" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N15" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O15" t="n">
-        <v>1194.79262694784</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P15" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>697.8532300916962</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>697.8532300916962</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>534.5364572184669</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>368.3282513713204</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>368.3282513713204</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299903</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358274</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>741.0109641302482</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100499</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818956</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025269</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251169</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751473</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359502</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>985.4544125320147</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>924.1959984019542</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>697.8532300916962</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1264.531207409475</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883226</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5515,25 +5515,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2467.904347614084</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
         <v>4997.579335409525</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>326.3817789554952</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>326.3817789554952</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>326.3817789554952</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
         <v>274.1644876312681</v>
@@ -5682,43 +5682,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M19" t="n">
-        <v>1132.196759100498</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N19" t="n">
-        <v>1509.688269976534</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O19" t="n">
-        <v>1865.116398656297</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P19" t="n">
-        <v>2155.715610578198</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.71574081896</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.677127506133</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025268</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251168</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.018283751472</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1260.306816359501</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>985.4544125320137</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>742.8905159778188</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>516.5477476675609</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D20" t="n">
         <v>1690.508147261616</v>
@@ -5740,37 +5740,37 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L20" t="n">
-        <v>1463.618246195026</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M20" t="n">
-        <v>2467.904347614084</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N20" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5788,13 +5788,13 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5834,22 +5834,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L21" t="n">
-        <v>102.3027134058285</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M21" t="n">
-        <v>1112.773316863137</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N21" t="n">
-        <v>1112.773316863137</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O21" t="n">
-        <v>1112.773316863137</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5934,28 +5934,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,25 +5989,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
         <v>4997.579335409525</v>
@@ -6068,28 +6068,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L24" t="n">
-        <v>374.0002026854196</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M24" t="n">
-        <v>557.3635891120873</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="N24" t="n">
-        <v>557.3635891120873</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="O24" t="n">
-        <v>1446.844867123559</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="P24" t="n">
-        <v>1446.844867123559</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>742.8905159778161</v>
+        <v>1185.483835930065</v>
       </c>
       <c r="C25" t="n">
-        <v>575.6239606180499</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D25" t="n">
-        <v>412.3071877448206</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E25" t="n">
-        <v>246.0989818976742</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F25" t="n">
-        <v>246.0989818976742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H25" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T25" t="n">
-        <v>1822.202732251165</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.018283751469</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.306816359498</v>
+        <v>2119.408873334071</v>
       </c>
       <c r="W25" t="n">
-        <v>985.454412532011</v>
+        <v>1844.556469506584</v>
       </c>
       <c r="X25" t="n">
-        <v>742.8905159778161</v>
+        <v>1601.992572952389</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.8905159778161</v>
+        <v>1375.649804642131</v>
       </c>
     </row>
     <row r="26">
@@ -6226,25 +6226,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="L26" t="n">
-        <v>1031.927761025105</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2036.213862444163</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>381.4468456473314</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>971.931772215671</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>1808.730580298577</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>1808.730580298577</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N27" t="n">
-        <v>1808.730580298577</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.730580298577</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P27" t="n">
-        <v>1808.730580298577</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>440.483482374059</v>
+        <v>545.9056190120762</v>
       </c>
       <c r="C28" t="n">
-        <v>268.510919252975</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="D28" t="n">
-        <v>268.510919252975</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="E28" t="n">
-        <v>102.3027134058285</v>
+        <v>373.9330558909921</v>
       </c>
       <c r="F28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="H28" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I28" t="n">
         <v>102.3027134058285</v>
@@ -6408,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>2041.726572307748</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1761.542123808053</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1479.830656416082</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1204.978252588595</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>962.4143560343998</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>736.0715877241419</v>
       </c>
     </row>
     <row r="29">
@@ -6463,16 +6463,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>366.6855125151251</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
         <v>2988.069926596602</v>
@@ -6554,16 +6554,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1112.773316863137</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1112.773316863137</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>326.3817789554925</v>
+        <v>543.5554397491844</v>
       </c>
       <c r="C31" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="D31" t="n">
-        <v>154.4092158344085</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="E31" t="n">
-        <v>102.3027134058285</v>
+        <v>371.5828766281004</v>
       </c>
       <c r="F31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2039.376393044857</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1759.191944545161</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1477.48047715319</v>
       </c>
       <c r="W31" t="n">
-        <v>985.454412532011</v>
+        <v>1202.628073325703</v>
       </c>
       <c r="X31" t="n">
-        <v>742.8905159778161</v>
+        <v>960.064176771508</v>
       </c>
       <c r="Y31" t="n">
-        <v>516.5477476675582</v>
+        <v>733.72140846125</v>
       </c>
     </row>
     <row r="32">
@@ -6700,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2036.213862444163</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
-        <v>3012.464920930865</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>3857.609571081677</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4565.888850239604</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6791,16 +6791,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>648.6278400003578</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q33" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R33" t="n">
         <v>1910.990343986338</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>437.5920494001418</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>265.6194862790578</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
       </c>
       <c r="E35" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409473</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988739</v>
       </c>
       <c r="G35" t="n">
         <v>435.0679631883225</v>
@@ -6937,43 +6937,43 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>464.9061722227241</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1394.531219842001</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2398.817321261059</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V35" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W35" t="n">
         <v>3777.607131232208</v>
@@ -7016,28 +7016,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>374.0002026854196</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>648.6278400003578</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O36" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q36" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>368.279487512699</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C37" t="n">
-        <v>368.279487512699</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D37" t="n">
-        <v>368.279487512699</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E37" t="n">
-        <v>202.0712816655526</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H37" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
         <v>741.0109641302445</v>
@@ -7116,31 +7116,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S37" t="n">
-        <v>2065.542080025269</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T37" t="n">
-        <v>1822.202732251169</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U37" t="n">
-        <v>1542.018283751473</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359502</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4544125320151</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778202</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675622</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="38">
@@ -7174,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N38" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4541.493855905342</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>608.0932463474674</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>608.0932463474674</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>608.0932463474674</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>441.8850405003209</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>270.0232662748813</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>103.7662965691134</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
         <v>102.3027134058285</v>
@@ -7332,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7350,34 +7350,34 @@
         <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025269</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251169</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751473</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1542.018283751473</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1267.165879923986</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1024.601983369791</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.2592150595331</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,49 +7411,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N41" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
         <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
         <v>2960.549862354846</v>
@@ -7487,31 +7487,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L42" t="n">
-        <v>648.6278400003578</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M42" t="n">
-        <v>648.6278400003578</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N42" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>648.6278400003578</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
         <v>1910.990343986338</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3666.855944130192</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C43" t="n">
-        <v>3494.883381009108</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D43" t="n">
-        <v>3331.566608135879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E43" t="n">
-        <v>3331.566608135879</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F43" t="n">
-        <v>3159.704833910439</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T43" t="n">
-        <v>4654.622661723635</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U43" t="n">
-        <v>4374.43821322394</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V43" t="n">
-        <v>4374.43821322394</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W43" t="n">
-        <v>4099.585809396453</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X43" t="n">
-        <v>3857.021912842258</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y43" t="n">
-        <v>3857.021912842258</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7636,49 +7636,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1715.81204584877</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2720.098147267829</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N44" t="n">
-        <v>3696.34920575453</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O44" t="n">
-        <v>4541.493855905342</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3873.571530742373</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>3756.065627259878</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>3652.225668775163</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>3547.523735048101</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>3453.877904731005</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>3359.824132948609</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L45" t="n">
-        <v>3306.448039710919</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M45" t="n">
-        <v>3306.448039710919</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="N45" t="n">
-        <v>3306.448039710919</v>
+        <v>1158.289251381874</v>
       </c>
       <c r="O45" t="n">
-        <v>4195.92931772239</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>4650.990193428648</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>5115.135670291427</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>5033.811422852682</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>4891.93148715036</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>4707.163291069997</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>4502.190152209264</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>4305.668775042481</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>4142.191428809144</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>4002.498540162436</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3341.604252503098</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C46" t="n">
-        <v>3341.604252503098</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D46" t="n">
-        <v>3178.287479629868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E46" t="n">
-        <v>3178.287479629868</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G46" t="n">
-        <v>3178.287479629868</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>5068.0970569786</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>4897.962009497735</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T46" t="n">
-        <v>4837.42520579877</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U46" t="n">
-        <v>4557.240757299074</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V46" t="n">
-        <v>4275.529289907103</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W46" t="n">
-        <v>4000.676886079616</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X46" t="n">
-        <v>3758.112989525421</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y46" t="n">
-        <v>3531.770221215163</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487771</v>
+        <v>38.06915396219996</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>39.7358160668222</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.056313988414</v>
       </c>
       <c r="O2" t="n">
-        <v>521.167650509992</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529641992</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8054,34 +8054,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>398.0263629780049</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681974</v>
+        <v>506.2917778681975</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662958</v>
+        <v>506.8734716662959</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>505.1197193675096</v>
       </c>
       <c r="O3" t="n">
-        <v>506.94858087619</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P3" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>33.56260952839192</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>20.97529217030811</v>
+        <v>20.97529217030856</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8218,16 +8218,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>181.5591018660332</v>
       </c>
       <c r="O5" t="n">
         <v>37.3909593560241</v>
@@ -8236,7 +8236,7 @@
         <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
         <v>153.7764225027789</v>
@@ -8294,10 +8294,10 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>177.6973456537768</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
         <v>578.7428998298237</v>
@@ -8306,7 +8306,7 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>458.427044786356</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
@@ -8391,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>315.915358154857</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8464,10 +8464,10 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
         <v>300.5986134498011</v>
@@ -8528,31 +8528,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.17301358442491</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
         <v>106.5207073584907</v>
@@ -8695,10 +8695,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N11" t="n">
         <v>1023.391803124043</v>
@@ -8713,7 +8713,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M12" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
@@ -8786,13 +8786,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>185.6255543726317</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N14" t="n">
-        <v>967.5075822902267</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8950,7 +8950,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,34 +9002,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>279.6168721116282</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>765.1769988726438</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,7 +9184,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1003.048909524252</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,19 +9400,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K20" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
-        <v>324.3764525304035</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>276.0147300838795</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9421,7 +9421,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9482,13 +9482,13 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>1043.774157741933</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9497,10 +9497,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
         <v>891.0724241548241</v>
@@ -9658,7 +9658,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
         <v>153.7764225027789</v>
@@ -9716,31 +9716,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>208.3123223574469</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>700.5970200580485</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,13 +9874,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>586.4197136125407</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9895,7 +9895,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>21.34302821354166</v>
+        <v>1022.176719479639</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -9974,10 +9974,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>126.0397288826768</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>296.4732919192194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10123,7 +10123,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O29" t="n">
         <v>891.0724241548241</v>
@@ -10202,10 +10202,10 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1042.020405443146</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
         <v>745.2028786174529</v>
@@ -10214,7 +10214,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10369,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>472.1756697257304</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10439,19 +10439,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>573.1865904302379</v>
+        <v>226.402256022168</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,16 +10588,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213577</v>
       </c>
       <c r="N35" t="n">
-        <v>632.4842746885297</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>299.9167405677024</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>949.8342934347922</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R36" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
@@ -10831,16 +10831,16 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O38" t="n">
-        <v>859.128966425699</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -11065,13 +11065,13 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>877.2336749314295</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O41" t="n">
         <v>891.0724241548241</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>292.2790261091175</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>781.6471621574452</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,10 +11302,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>579.1176643018625</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N44" t="n">
         <v>1023.391803124043</v>
@@ -11314,13 +11314,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11384,19 +11384,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>783.4760236661258</v>
       </c>
       <c r="P45" t="n">
-        <v>481.4282914131703</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>12.79978656772835</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>79.31046371040659</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189919266</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>179.492427599893</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>112.8510053776901</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>118.557719078891</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>4.658947683704582</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>117.2205539080143</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>112.9606863843808</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24621,7 +24621,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>2.326677470262695</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9606863843808</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>45.9141007000632</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.4787314716304</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>71.98949189919249</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25332,7 +25332,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,22 +25551,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9093584752751</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
         <v>98.77088257712678</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>40.63291346401758</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T46" t="n">
-        <v>180.9745186343829</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>563091.8164156389</v>
+        <v>563091.8164156388</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>563091.8164156389</v>
+        <v>563091.8164156388</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>563091.8164156387</v>
+        <v>563091.8164156388</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>563091.8164156389</v>
+        <v>563091.8164156388</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>563091.8164156389</v>
+        <v>563091.8164156388</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>563091.8164156389</v>
+        <v>563091.8164156388</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>495076.2678094888</v>
+      </c>
+      <c r="C2" t="n">
         <v>495076.2678094887</v>
       </c>
-      <c r="C2" t="n">
-        <v>495076.2678094888</v>
-      </c>
       <c r="D2" t="n">
-        <v>495076.2678094887</v>
+        <v>495076.2678094886</v>
       </c>
       <c r="E2" t="n">
+        <v>477725.8426668302</v>
+      </c>
+      <c r="F2" t="n">
         <v>477725.8426668304</v>
       </c>
-      <c r="F2" t="n">
-        <v>477725.8426668302</v>
-      </c>
       <c r="G2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="H2" t="n">
-        <v>477725.8426668303</v>
+        <v>477725.8426668304</v>
       </c>
       <c r="I2" t="n">
         <v>477725.8426668302</v>
       </c>
       <c r="J2" t="n">
-        <v>477725.8426668301</v>
+        <v>477725.8426668303</v>
       </c>
       <c r="K2" t="n">
         <v>477725.8426668302</v>
       </c>
       <c r="L2" t="n">
-        <v>477725.8426668303</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="M2" t="n">
-        <v>477725.8426668303</v>
+        <v>477725.8426668301</v>
       </c>
       <c r="N2" t="n">
-        <v>477725.8426668305</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="O2" t="n">
-        <v>477725.8426668303</v>
+        <v>477725.8426668302</v>
       </c>
       <c r="P2" t="n">
         <v>477725.8426668302</v>
@@ -26368,7 +26368,7 @@
         <v>162124.6960695912</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361228</v>
+        <v>23406.83367361224</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>126577.2685802888</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.60035701984</v>
+        <v>18646.60035701981</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>180063.8714551677</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187607.6695456101</v>
+        <v>187607.66954561</v>
       </c>
       <c r="C4" t="n">
-        <v>173998.4022791779</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
         <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
+        <v>58064.5138518796</v>
+      </c>
+      <c r="F4" t="n">
+        <v>58064.51385187959</v>
+      </c>
+      <c r="G4" t="n">
+        <v>58064.51385187961</v>
+      </c>
+      <c r="H4" t="n">
         <v>58064.51385187964</v>
-      </c>
-      <c r="F4" t="n">
-        <v>58064.51385187964</v>
-      </c>
-      <c r="G4" t="n">
-        <v>58064.51385187965</v>
-      </c>
-      <c r="H4" t="n">
-        <v>58064.51385187959</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
       </c>
       <c r="J4" t="n">
-        <v>58064.51385187965</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="K4" t="n">
         <v>58064.51385187964</v>
@@ -26453,10 +26453,10 @@
         <v>58064.51385187964</v>
       </c>
       <c r="N4" t="n">
-        <v>58064.51385187965</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="O4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187963</v>
       </c>
       <c r="P4" t="n">
         <v>58064.51385187963</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>82302.67937212624</v>
+        <v>82302.67937212632</v>
       </c>
       <c r="C6" t="n">
-        <v>230224.7808192705</v>
+        <v>230224.7808192706</v>
       </c>
       <c r="D6" t="n">
-        <v>253631.6144928828</v>
+        <v>253631.6144928827</v>
       </c>
       <c r="E6" t="n">
-        <v>126171.9100698805</v>
+        <v>126120.8794076961</v>
       </c>
       <c r="F6" t="n">
-        <v>341911.2666265209</v>
+        <v>341860.2359643368</v>
       </c>
       <c r="G6" t="n">
-        <v>341911.2666265211</v>
+        <v>341860.2359643367</v>
       </c>
       <c r="H6" t="n">
-        <v>341911.2666265211</v>
+        <v>341860.2359643368</v>
       </c>
       <c r="I6" t="n">
-        <v>341911.2666265209</v>
+        <v>341860.2359643366</v>
       </c>
       <c r="J6" t="n">
-        <v>215333.998046232</v>
+        <v>215282.9673840479</v>
       </c>
       <c r="K6" t="n">
-        <v>323264.6662695011</v>
+        <v>323213.6356073168</v>
       </c>
       <c r="L6" t="n">
-        <v>341911.266626521</v>
+        <v>341860.2359643366</v>
       </c>
       <c r="M6" t="n">
-        <v>161847.3951713533</v>
+        <v>161796.3645091689</v>
       </c>
       <c r="N6" t="n">
-        <v>341911.2666265211</v>
+        <v>341860.2359643366</v>
       </c>
       <c r="O6" t="n">
-        <v>341911.266626521</v>
+        <v>341860.2359643366</v>
       </c>
       <c r="P6" t="n">
-        <v>341911.2666265209</v>
+        <v>341860.2359643366</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572627</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162631</v>
+        <v>72.4511219616262</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>323.4592377876957</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>355.826447001754</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2.284315397371259</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
@@ -27593,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>124.5500054364331</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.23069669041814</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>296.8468361521185</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>232.7324384170693</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>294.8896947407055</v>
@@ -27909,19 +27909,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
-        <v>206.2762395340006</v>
+        <v>198.7036757366573</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>59.29601254814088</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969948</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>117.2205539080134</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>-3.016897076984856e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28304,7 +28304,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-3.423675366198314e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-4.726213591460058e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539678</v>
+        <v>2.304553167390613</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.304553167390384</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O2" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>375.6271291446716</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539678</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>483.7766911539679</v>
       </c>
       <c r="O3" t="n">
-        <v>483.7766911539678</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.81557123941343</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01063771759611215</v>
+        <v>0.01063771759656431</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34938,16 +34938,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L5" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="M5" t="n">
-        <v>48.74406945557187</v>
-      </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
         <v>118.7437726079824</v>
@@ -35014,10 +35014,10 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>155.2981118204434</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>556.2278131155941</v>
@@ -35026,7 +35026,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35111,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>293.5345574968705</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35184,10 +35184,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>263.0232516395698</v>
@@ -35248,31 +35248,31 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.42597529544641</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
         <v>82.84778796434657</v>
@@ -35415,10 +35415,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N11" t="n">
         <v>986.1121802895968</v>
@@ -35433,7 +35433,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M12" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>163.8547131678031</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N14" t="n">
-        <v>930.2279594557806</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35670,7 +35670,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>58.0720487112745</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K16" t="n">
         <v>228.8157587937749</v>
@@ -35822,7 +35822,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P16" t="n">
-        <v>293.5345574968697</v>
+        <v>293.5345574968691</v>
       </c>
       <c r="Q16" t="n">
         <v>128.2829598391535</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>727.745735973212</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,7 +35904,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>118.7437726079824</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>981.7058813107108</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36050,7 +36050,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>395.13716663662</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
         <v>381.3045564404402</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
-        <v>286.0644100977806</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>238.7351072494335</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36141,7 +36141,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1020.677377229605</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
         <v>853.6814647988001</v>
@@ -36378,7 +36378,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
         <v>118.7437726079824</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>185.2155418451189</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>678.8261788532199</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,13 +36594,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>548.1076711799178</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36615,7 +36615,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.2926905936983</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>267.0533324336329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O29" t="n">
         <v>853.6814647988001</v>
@@ -36922,10 +36922,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1020.677377229605</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
         <v>723.4320374126243</v>
@@ -36934,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37089,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>436.0509951211323</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37159,19 +37159,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>551.8435622166962</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,16 +37308,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314145</v>
       </c>
       <c r="N35" t="n">
-        <v>595.2046518540836</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4016538534729</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37484,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2829598391573</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
@@ -37551,16 +37551,16 @@
         <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O38" t="n">
-        <v>821.7380070696748</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37718,7 +37718,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968734</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
         <v>128.2829598391535</v>
@@ -37785,13 +37785,13 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>839.8024120319977</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O41" t="n">
         <v>853.6814647988001</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>269.8797922757842</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38022,10 +38022,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>540.8056218692396</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N44" t="n">
         <v>986.1121802895968</v>
@@ -38034,13 +38034,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>760.3041339439036</v>
       </c>
       <c r="P45" t="n">
-        <v>459.6574502083416</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
